--- a/doc/对手分析界面设计.xlsx
+++ b/doc/对手分析界面设计.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2C7917-350C-4B48-8506-94955AB55BE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E60F349-7F9F-41BE-A94E-937D4DE84BE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能列表" sheetId="4" r:id="rId1"/>
@@ -1108,6 +1108,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1129,9 +1138,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1141,6 +1147,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1149,15 +1158,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2238,10 +2238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74EA756-3817-41D3-BCA4-DF3DFE3E7657}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G1" sqref="G1:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2252,14 +2252,17 @@
     <col min="4" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>118</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>17</v>
       </c>
@@ -2269,9 +2272,12 @@
       <c r="C2" s="55" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="G2" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="56" t="s">
@@ -2280,17 +2286,23 @@
       <c r="C3" s="56" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="G3" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="65"/>
       <c r="B4" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>3</v>
       </c>
@@ -2300,9 +2312,12 @@
       <c r="C5" s="56" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="G5" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="63" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="57" t="s">
@@ -2311,49 +2326,67 @@
       <c r="C6" s="56" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
+      <c r="G6" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="65"/>
       <c r="B7" s="57" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
+      <c r="G7" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="57" t="s">
         <v>90</v>
       </c>
       <c r="C8" s="56"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
+      <c r="G8" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="64"/>
       <c r="B9" s="57" t="s">
         <v>91</v>
       </c>
       <c r="C9" s="60"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
+      <c r="G9" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="64"/>
       <c r="B10" s="57" t="s">
         <v>99</v>
       </c>
       <c r="C10" s="62" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
+      <c r="G10" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="65"/>
       <c r="B11" s="57" t="s">
         <v>100</v>
       </c>
       <c r="C11" s="62"/>
-    </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G11" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
         <v>107</v>
       </c>
@@ -2362,6 +2395,104 @@
       </c>
       <c r="C12" s="59" t="s">
         <v>117</v>
+      </c>
+      <c r="G12" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G29" s="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G31" s="22">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2391,7 +2522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCA414E-29F7-458F-A146-E91E1EC78965}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
@@ -2624,8 +2755,8 @@
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="31"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -2652,8 +2783,8 @@
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -2956,7 +3087,7 @@
       <c r="B23" s="21">
         <v>13</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="79" t="s">
         <v>73</v>
       </c>
       <c r="D23" s="30" t="s">
@@ -2986,7 +3117,7 @@
       <c r="B24" s="21">
         <v>19</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -3487,14 +3618,14 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
@@ -6094,16 +6225,16 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -6114,16 +6245,16 @@
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -6136,26 +6267,26 @@
       <c r="B12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64" t="s">
+      <c r="D12" s="67"/>
+      <c r="E12" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64" t="s">
+      <c r="F12" s="67"/>
+      <c r="G12" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64" t="s">
+      <c r="H12" s="67"/>
+      <c r="I12" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64" t="s">
+      <c r="J12" s="67"/>
+      <c r="K12" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="64"/>
+      <c r="L12" s="67"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
@@ -6168,20 +6299,20 @@
       <c r="B13" s="19">
         <v>1</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65" t="s">
+      <c r="D13" s="68"/>
+      <c r="E13" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
@@ -6194,20 +6325,20 @@
       <c r="B14" s="19">
         <v>2</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65" t="s">
+      <c r="D14" s="68"/>
+      <c r="E14" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
@@ -6220,16 +6351,16 @@
       <c r="B15" s="19">
         <v>3</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
@@ -6242,16 +6373,16 @@
       <c r="B16" s="19">
         <v>4</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
@@ -6264,16 +6395,16 @@
       <c r="B17" s="19">
         <v>5</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
@@ -6286,16 +6417,16 @@
       <c r="B18" s="19">
         <v>6</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
@@ -6308,16 +6439,16 @@
       <c r="B19" s="19">
         <v>7</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -6330,16 +6461,16 @@
       <c r="B20" s="19">
         <v>8</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -6352,16 +6483,16 @@
       <c r="B21" s="19">
         <v>9</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
@@ -6374,16 +6505,16 @@
       <c r="B22" s="19">
         <v>10</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
@@ -6394,16 +6525,16 @@
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
@@ -6414,16 +6545,16 @@
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
@@ -6434,16 +6565,16 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
@@ -6454,16 +6585,16 @@
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
@@ -6474,16 +6605,16 @@
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
@@ -6494,16 +6625,16 @@
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
@@ -6514,16 +6645,16 @@
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
@@ -6534,16 +6665,16 @@
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -6554,16 +6685,16 @@
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
@@ -6773,6 +6904,106 @@
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
@@ -6783,106 +7014,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -6899,8 +7030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A7BCA8-312D-45FC-9F6F-F2D85E6BDDE3}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7128,10 +7259,10 @@
       <c r="C11" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="69"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="52"/>
       <c r="G11" s="51" t="s">
         <v>103</v>
@@ -7171,7 +7302,7 @@
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="70" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="42" t="s">
@@ -7207,7 +7338,7 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="67"/>
+      <c r="A14" s="70"/>
       <c r="C14" s="45" t="s">
         <v>25</v>
       </c>
@@ -7241,7 +7372,7 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="69" t="s">
         <v>91</v>
       </c>
       <c r="C15" s="45"/>
@@ -7261,7 +7392,7 @@
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
+      <c r="A16" s="69"/>
       <c r="C16" s="45"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -7279,7 +7410,7 @@
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="69" t="s">
         <v>99</v>
       </c>
       <c r="C17" s="45"/>
@@ -7299,7 +7430,7 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
+      <c r="A18" s="69"/>
       <c r="C18" s="45"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -7317,7 +7448,7 @@
       <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="69" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="45"/>
@@ -7337,7 +7468,7 @@
       <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="66"/>
+      <c r="A20" s="69"/>
       <c r="C20" s="45"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -8027,7 +8158,7 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="69" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -8053,7 +8184,7 @@
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
+      <c r="A12" s="69"/>
       <c r="C12" s="45" t="s">
         <v>92</v>
       </c>
@@ -8077,7 +8208,7 @@
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="70" t="s">
         <v>91</v>
       </c>
       <c r="C13" s="45" t="s">
@@ -8103,7 +8234,7 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="67"/>
+      <c r="A14" s="70"/>
       <c r="C14" s="45"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -8121,7 +8252,7 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="69" t="s">
         <v>99</v>
       </c>
       <c r="C15" s="45"/>
@@ -8141,7 +8272,7 @@
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
+      <c r="A16" s="69"/>
       <c r="C16" s="45"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -8159,7 +8290,7 @@
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="69" t="s">
         <v>100</v>
       </c>
       <c r="C17" s="45"/>
@@ -8179,7 +8310,7 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
+      <c r="A18" s="69"/>
       <c r="C18" s="45"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -8631,7 +8762,7 @@
   <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8854,7 +8985,7 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="69" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -8886,7 +9017,7 @@
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
+      <c r="A12" s="69"/>
       <c r="C12" s="18" t="s">
         <v>92</v>
       </c>
@@ -8910,7 +9041,7 @@
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="69" t="s">
         <v>91</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -8936,7 +9067,7 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
+      <c r="A14" s="69"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -8954,7 +9085,7 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="70" t="s">
         <v>99</v>
       </c>
       <c r="C15" s="18"/>
@@ -8974,7 +9105,7 @@
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
+      <c r="A16" s="70"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -8992,7 +9123,7 @@
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="69" t="s">
         <v>100</v>
       </c>
       <c r="C17" s="18"/>
@@ -9012,7 +9143,7 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
+      <c r="A18" s="69"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -9473,7 +9604,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9696,7 +9827,7 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="69" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -9732,8 +9863,8 @@
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
-      <c r="C12" s="71" t="s">
+      <c r="A12" s="69"/>
+      <c r="C12" s="73" t="s">
         <v>92</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -9758,10 +9889,10 @@
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="18" t="s">
         <v>88</v>
       </c>
@@ -9784,8 +9915,8 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
-      <c r="C14" s="72"/>
+      <c r="A14" s="69"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="18" t="s">
         <v>95</v>
       </c>
@@ -9808,10 +9939,10 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="72"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="18" t="s">
         <v>96</v>
       </c>
@@ -9830,8 +9961,8 @@
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
-      <c r="C16" s="73"/>
+      <c r="A16" s="69"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="18" t="s">
         <v>97</v>
       </c>
@@ -9850,10 +9981,10 @@
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="73" t="s">
         <v>93</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -9874,8 +10005,8 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
-      <c r="C18" s="72"/>
+      <c r="A18" s="70"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="18" t="s">
         <v>88</v>
       </c>
@@ -9894,8 +10025,8 @@
       <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="70"/>
-      <c r="C19" s="72"/>
+      <c r="A19" s="76"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="18" t="s">
         <v>95</v>
       </c>
@@ -9920,8 +10051,8 @@
       <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="70"/>
-      <c r="C20" s="72"/>
+      <c r="A20" s="76"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="18" t="s">
         <v>96</v>
       </c>
@@ -9945,7 +10076,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
-      <c r="C21" s="73"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="18" t="s">
         <v>97</v>
       </c>
@@ -10557,20 +10688,20 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="74" t="s">
+      <c r="D10" s="78"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="75"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -10581,16 +10712,16 @@
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -11326,16 +11457,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/对手分析界面设计.xlsx
+++ b/doc/对手分析界面设计.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E60F349-7F9F-41BE-A94E-937D4DE84BE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7229E085-1F3E-462E-A539-D30F88A7A89C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能列表" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="123">
   <si>
     <t>对手分析表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>说明文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关于</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,6 +504,18 @@
   </si>
   <si>
     <t>待规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -920,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1101,6 +1109,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2253,50 +2267,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="A1" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
       <c r="G1" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="C2" s="55" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>19</v>
       </c>
       <c r="G2" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="65" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="22">
         <v>4</v>
@@ -2307,47 +2321,47 @@
         <v>3</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="56" t="s">
         <v>54</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>55</v>
       </c>
       <c r="G7" s="22">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="65" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="56"/>
       <c r="G8" s="22">
@@ -2355,9 +2369,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="60"/>
       <c r="G9" s="22">
@@ -2365,36 +2379,36 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>119</v>
+        <v>98</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>118</v>
       </c>
       <c r="G10" s="22">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="62"/>
+        <v>99</v>
+      </c>
+      <c r="C11" s="64"/>
       <c r="G11" s="22">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G12" s="22">
         <v>12</v>
@@ -2522,7 +2536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCA414E-29F7-458F-A146-E91E1EC78965}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
@@ -2570,7 +2584,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>6</v>
@@ -2631,7 +2645,7 @@
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2639,7 +2653,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -2676,7 +2690,7 @@
       <c r="A7" s="12"/>
       <c r="B7" s="5"/>
       <c r="C7" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="35"/>
@@ -2740,14 +2754,14 @@
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="30">
         <v>1000</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="30">
         <v>300</v>
@@ -2755,8 +2769,8 @@
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="31"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -2768,14 +2782,14 @@
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="30">
         <v>800</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="30">
         <v>200</v>
@@ -2783,8 +2797,8 @@
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -2795,7 +2809,7 @@
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="30"/>
@@ -2806,10 +2820,10 @@
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
       <c r="K12" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -2824,23 +2838,23 @@
         <v>10</v>
       </c>
       <c r="C13" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="E13" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="F13" s="30" t="s">
         <v>64</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>65</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
       <c r="J13" s="31"/>
       <c r="K13" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="19">
         <v>1</v>
@@ -2882,13 +2896,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>68</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>69</v>
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
@@ -2936,14 +2950,14 @@
         <v>1</v>
       </c>
       <c r="C17" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="33" t="s">
         <v>70</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>71</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
@@ -2967,7 +2981,7 @@
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -3087,14 +3101,14 @@
       <c r="B23" s="21">
         <v>13</v>
       </c>
-      <c r="C23" s="79" t="s">
-        <v>73</v>
+      <c r="C23" s="81" t="s">
+        <v>72</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
@@ -3117,7 +3131,7 @@
       <c r="B24" s="21">
         <v>19</v>
       </c>
-      <c r="C24" s="79"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -3350,10 +3364,10 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -3375,7 +3389,7 @@
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -3579,7 +3593,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>6</v>
@@ -3618,14 +3632,14 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
@@ -3637,31 +3651,31 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>114</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -4078,10 +4092,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -4102,7 +4116,7 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -4300,7 +4314,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>6</v>
@@ -4360,7 +4374,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -5111,8 +5125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9E5AC3-E563-4C5D-A4C5-BD01843FE95C}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5158,10 +5172,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -5178,7 +5192,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>9</v>
@@ -5190,9 +5204,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="13"/>
-      <c r="F3" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="F3" s="61"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -5208,7 +5220,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>10</v>
@@ -5220,9 +5232,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="F4" s="61"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -5237,7 +5247,9 @@
       <c r="R4" s="14"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="62" t="s">
+        <v>120</v>
+      </c>
       <c r="B5" s="19" t="s">
         <v>11</v>
       </c>
@@ -5248,7 +5260,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -6058,7 +6070,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>6</v>
@@ -6119,7 +6131,7 @@
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -6147,11 +6159,11 @@
       <c r="F6" s="7"/>
       <c r="G6" s="13"/>
       <c r="H6" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -6225,16 +6237,16 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -6245,16 +6257,16 @@
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -6265,28 +6277,28 @@
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67" t="s">
+      <c r="F12" s="69"/>
+      <c r="G12" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67" t="s">
+      <c r="H12" s="69"/>
+      <c r="I12" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67" t="s">
+      <c r="J12" s="69"/>
+      <c r="K12" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="67"/>
+      <c r="L12" s="69"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
@@ -6299,20 +6311,20 @@
       <c r="B13" s="19">
         <v>1</v>
       </c>
-      <c r="C13" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
+      <c r="C13" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
@@ -6325,20 +6337,20 @@
       <c r="B14" s="19">
         <v>2</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
@@ -6351,16 +6363,16 @@
       <c r="B15" s="19">
         <v>3</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
@@ -6373,16 +6385,16 @@
       <c r="B16" s="19">
         <v>4</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
@@ -6395,16 +6407,16 @@
       <c r="B17" s="19">
         <v>5</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
@@ -6417,16 +6429,16 @@
       <c r="B18" s="19">
         <v>6</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
@@ -6439,16 +6451,16 @@
       <c r="B19" s="19">
         <v>7</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -6461,16 +6473,16 @@
       <c r="B20" s="19">
         <v>8</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -6483,16 +6495,16 @@
       <c r="B21" s="19">
         <v>9</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
@@ -6505,16 +6517,16 @@
       <c r="B22" s="19">
         <v>10</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
@@ -6525,16 +6537,16 @@
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
@@ -6545,16 +6557,16 @@
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
@@ -6565,16 +6577,16 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
@@ -6585,16 +6597,16 @@
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
@@ -6605,16 +6617,16 @@
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
@@ -6625,16 +6637,16 @@
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
@@ -6645,16 +6657,16 @@
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
@@ -6665,16 +6677,16 @@
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -6685,16 +6697,16 @@
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
@@ -6904,6 +6916,106 @@
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
@@ -6914,106 +7026,6 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="K31:L31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -7080,7 +7092,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>6</v>
@@ -7140,7 +7152,7 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -7167,7 +7179,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="13"/>
       <c r="J6" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -7257,21 +7269,21 @@
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="72"/>
+        <v>103</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="74"/>
       <c r="F11" s="52"/>
       <c r="G11" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
@@ -7302,32 +7314,32 @@
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="70" t="s">
-        <v>90</v>
+      <c r="A13" s="72" t="s">
+        <v>89</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="43" t="s">
+      <c r="G13" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="H13" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="I13" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="J13" s="43" t="s">
         <v>83</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>84</v>
       </c>
       <c r="K13" s="44"/>
       <c r="L13" s="13"/>
@@ -7338,18 +7350,18 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="70"/>
+      <c r="A14" s="72"/>
       <c r="C14" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>88</v>
       </c>
       <c r="G14" s="18">
         <v>6</v>
@@ -7361,7 +7373,7 @@
         <v>44207</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" s="46"/>
       <c r="L14" s="13"/>
@@ -7372,8 +7384,8 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="69" t="s">
-        <v>91</v>
+      <c r="A15" s="71" t="s">
+        <v>90</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="18"/>
@@ -7392,7 +7404,7 @@
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
+      <c r="A16" s="71"/>
       <c r="C16" s="45"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -7410,8 +7422,8 @@
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
-        <v>99</v>
+      <c r="A17" s="71" t="s">
+        <v>98</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="18"/>
@@ -7430,7 +7442,7 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
+      <c r="A18" s="71"/>
       <c r="C18" s="45"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -7448,8 +7460,8 @@
       <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>100</v>
+      <c r="A19" s="71" t="s">
+        <v>99</v>
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="18"/>
@@ -7468,7 +7480,7 @@
       <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="69"/>
+      <c r="A20" s="71"/>
       <c r="C20" s="45"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -7984,7 +7996,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>6</v>
@@ -8044,7 +8056,7 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -8071,7 +8083,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="13"/>
       <c r="J6" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -8158,17 +8170,17 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="69" t="s">
-        <v>90</v>
+      <c r="A11" s="71" t="s">
+        <v>89</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -8184,9 +8196,9 @@
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
+      <c r="A12" s="71"/>
       <c r="C12" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="18">
         <v>10000</v>
@@ -8208,11 +8220,11 @@
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="70" t="s">
-        <v>91</v>
+      <c r="A13" s="72" t="s">
+        <v>90</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="18">
         <v>9000</v>
@@ -8234,7 +8246,7 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="70"/>
+      <c r="A14" s="72"/>
       <c r="C14" s="45"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -8252,8 +8264,8 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="69" t="s">
-        <v>99</v>
+      <c r="A15" s="71" t="s">
+        <v>98</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="18"/>
@@ -8272,7 +8284,7 @@
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
+      <c r="A16" s="71"/>
       <c r="C16" s="45"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -8290,8 +8302,8 @@
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
-        <v>100</v>
+      <c r="A17" s="71" t="s">
+        <v>99</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="18"/>
@@ -8310,7 +8322,7 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
+      <c r="A18" s="71"/>
       <c r="C18" s="45"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -8811,7 +8823,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>6</v>
@@ -8871,7 +8883,7 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -8898,7 +8910,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="13"/>
       <c r="J6" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -8985,26 +8997,26 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="69" t="s">
-        <v>90</v>
+      <c r="A11" s="71" t="s">
+        <v>89</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="G11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="H11" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>28</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -9017,9 +9029,9 @@
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
+      <c r="A12" s="71"/>
       <c r="C12" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="18">
         <v>9500</v>
@@ -9041,11 +9053,11 @@
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="69" t="s">
-        <v>91</v>
+      <c r="A13" s="71" t="s">
+        <v>90</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="18">
         <v>200</v>
@@ -9067,7 +9079,7 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="69"/>
+      <c r="A14" s="71"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -9085,8 +9097,8 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="70" t="s">
-        <v>99</v>
+      <c r="A15" s="72" t="s">
+        <v>98</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -9105,7 +9117,7 @@
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="70"/>
+      <c r="A16" s="72"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -9123,8 +9135,8 @@
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
-        <v>100</v>
+      <c r="A17" s="71" t="s">
+        <v>99</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -9143,7 +9155,7 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
+      <c r="A18" s="71"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -9250,7 +9262,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="AB23" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
@@ -9653,7 +9665,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>6</v>
@@ -9713,7 +9725,7 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -9740,7 +9752,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="13"/>
       <c r="J6" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -9827,32 +9839,32 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="69" t="s">
-        <v>90</v>
+      <c r="A11" s="71" t="s">
+        <v>89</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="H11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="I11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>28</v>
-      </c>
       <c r="J11" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -9863,12 +9875,12 @@
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
-      <c r="C12" s="73" t="s">
-        <v>92</v>
+      <c r="A12" s="71"/>
+      <c r="C12" s="75" t="s">
+        <v>91</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="18">
         <v>10</v>
@@ -9889,12 +9901,12 @@
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="74"/>
+      <c r="A13" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="76"/>
       <c r="D13" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="18">
         <v>30</v>
@@ -9915,10 +9927,10 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="69"/>
-      <c r="C14" s="74"/>
+      <c r="A14" s="71"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="18">
         <v>20</v>
@@ -9939,12 +9951,12 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="74"/>
+      <c r="A15" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="76"/>
       <c r="D15" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -9961,10 +9973,10 @@
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
-      <c r="C16" s="75"/>
+      <c r="A16" s="71"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -9981,14 +9993,14 @@
       <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="73" t="s">
-        <v>93</v>
+      <c r="A17" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>92</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -10005,10 +10017,10 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="70"/>
-      <c r="C18" s="74"/>
+      <c r="A18" s="72"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -10025,10 +10037,10 @@
       <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="76"/>
-      <c r="C19" s="74"/>
+      <c r="A19" s="78"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E19" s="18">
         <v>10</v>
@@ -10051,10 +10063,10 @@
       <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="76"/>
-      <c r="C20" s="74"/>
+      <c r="A20" s="78"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18">
@@ -10076,9 +10088,9 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
-      <c r="C21" s="75"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="18">
         <v>5</v>
@@ -10584,7 +10596,7 @@
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -10592,7 +10604,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -10688,20 +10700,20 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="80"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="78"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -10712,16 +10724,16 @@
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -10732,37 +10744,37 @@
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="D12" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="E12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="F12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="G12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="H12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="I12" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="J12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="K12" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="19" t="s">
-        <v>48</v>
-      </c>
       <c r="L12" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -10798,10 +10810,10 @@
         <v>3</v>
       </c>
       <c r="J13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="L13" s="19">
         <v>1</v>
@@ -11291,10 +11303,10 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -11316,7 +11328,7 @@
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -11457,16 +11469,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
